--- a/Data/EC/NIT-9010221832.xlsx
+++ b/Data/EC/NIT-9010221832.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F89CA5D-0FEC-4053-B61B-15BFE21D35FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F97425-6D28-4774-905D-7F727F93665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{825F6A8E-21E5-461A-809B-1466165E432D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D0ADF91-5C79-44A7-8E6B-5D47DD48B7C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,73 +71,73 @@
     <t>LINO JOSE GARCIA BLANCO</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3C29A5-25CD-ABBD-E30F-63BD5B7EEC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F61143B-601F-71F9-7B6F-645F553879C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,28 +902,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4E197F-8B40-4057-AFCE-FF40E869E1CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF72A56-2411-40D9-9607-48AF185418D7}">
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -936,7 +936,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -947,7 +947,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -958,7 +958,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -969,8 +969,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
@@ -985,8 +985,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1001,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1017,8 +1017,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="21" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="I38" s="25"/>
       <c r="J38" s="26"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="32" t="s">
         <v>43</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="32" t="s">
         <v>42</v>
       </c>

--- a/Data/EC/NIT-9010221832.xlsx
+++ b/Data/EC/NIT-9010221832.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F97425-6D28-4774-905D-7F727F93665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F274BF41-85E4-4BC3-B266-4B555E78F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D0ADF91-5C79-44A7-8E6B-5D47DD48B7C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05744A0B-19A9-4CB1-BD45-64C765DFA113}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,73 +71,73 @@
     <t>LINO JOSE GARCIA BLANCO</t>
   </si>
   <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +236,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +251,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +451,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +495,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F61143B-601F-71F9-7B6F-645F553879C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B5497A-E100-2AE6-3106-E08FAADC43EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,28 +902,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF72A56-2411-40D9-9607-48AF185418D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2130BDC-28E6-483C-8939-FA83C1457736}">
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -936,7 +936,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -947,7 +947,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -958,7 +958,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -969,8 +969,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
@@ -985,8 +985,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1001,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1017,8 +1017,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="21" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="I38" s="25"/>
       <c r="J38" s="26"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="32" t="s">
         <v>43</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="32" t="s">
         <v>42</v>
       </c>
